--- a/Projektnoten_template.xlsx
+++ b/Projektnoten_template.xlsx
@@ -444,7 +444,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -515,6 +515,11 @@
     <t>QR-code-bestellung</t>
   </si>
   <si>
+    <t>Hauptverantwortlich für: 
+- gesamte Code-Entwicklung (GUI, Logging, Exceptions, Streams)
+- README (Deutsch) und Lernnotizen (Nachdenkzettel)</t>
+  </si>
+  <si>
     <t>Maimaiti</t>
   </si>
   <si>
@@ -524,6 +529,12 @@
     <t>M.B.</t>
   </si>
   <si>
+    <t>Verantwortlich für:
+- JUnit-Tests (OrderTest)
+- UML-Klassendiagramm (docs/uml.png)
+- Unterstützung bei Code-Reviews</t>
+  </si>
+  <si>
     <t>Yalikun</t>
   </si>
   <si>
@@ -533,7 +544,7 @@
     <t>Y.Y.</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve"> Beteiligt an der Erstellung der Lernnotizen (Nachdenkzettel)</t>
   </si>
   <si>
     <t>Aufgabe 1</t>
@@ -658,7 +669,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -681,12 +692,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="1"/>
     </font>
@@ -842,12 +847,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
@@ -855,6 +854,12 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1163,28 +1168,31 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1193,123 +1201,120 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49"/>
@@ -1331,7 +1336,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1462,7 +1470,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="2"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>Zusammensetzung der SE2-Note:</a:t>
           </a:r>
@@ -1491,7 +1499,7 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="2"/>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
             </a:rPr>
             <a:t>Das Projekt zählt zu 33% in die Gesamtnote. Die Berechung kann hier getestet werden.</a:t>
           </a:r>
@@ -1767,7 +1775,7 @@
   <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5047619047619" defaultRowHeight="15"/>
@@ -1787,7 +1795,7 @@
     <col min="15" max="15" width="8.82857142857143" customWidth="1"/>
     <col min="16" max="16" width="13.3333333333333" customWidth="1"/>
     <col min="17" max="17" width="20.6666666666667" customWidth="1"/>
-    <col min="18" max="18" width="22.5047619047619" customWidth="1"/>
+    <col min="18" max="18" width="49.1428571428571" customWidth="1"/>
     <col min="19" max="19" width="23.8285714285714" customWidth="1"/>
     <col min="20" max="1025" width="10.8285714285714" customWidth="1"/>
   </cols>
@@ -1851,7 +1859,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" ht="60" spans="1:19">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1904,23 +1912,26 @@
         <f t="shared" ref="Q2:Q33" si="0">SUM(G2:P2)</f>
         <v>23</v>
       </c>
+      <c r="R2" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="S2" s="14">
         <f>VLOOKUP(Q2,Notenspiegel!$D$17:$E$47,2,0)</f>
         <v>2.3</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" ht="60" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>23</v>
+      <c r="B3" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>5028195</v>
@@ -1961,6 +1972,9 @@
       <c r="Q3" s="14">
         <f t="shared" si="0"/>
         <v>14</v>
+      </c>
+      <c r="R3" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="S3" s="14">
         <f>VLOOKUP(Q3,Notenspiegel!$D$17:$E$47,2,0)</f>
@@ -1972,13 +1986,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>5028197</v>
@@ -2021,7 +2035,7 @@
         <v>11</v>
       </c>
       <c r="R4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S4" s="14">
         <f>VLOOKUP(Q4,Notenspiegel!$D$17:$E$47,2,0)</f>
@@ -2826,40 +2840,40 @@
         <v>4</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P1" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -3679,13 +3693,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4186,18 +4200,18 @@
   <sheetData>
     <row r="1" ht="23.25" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -4216,40 +4230,40 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -4268,14 +4282,14 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5">
         <v>1.3</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E5" s="5">
         <v>1.3</v>
@@ -4294,14 +4308,14 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" s="5">
         <v>1.7</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" s="5">
         <v>1.7</v>
@@ -4320,7 +4334,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
@@ -4346,7 +4360,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B8" s="5">
         <v>2.3</v>
@@ -4372,14 +4386,14 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B9" s="5">
         <v>2.7</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9" s="5">
         <v>2.7</v>
@@ -4398,7 +4412,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5">
         <v>3</v>
@@ -4424,14 +4438,14 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B11" s="5">
         <v>3.3</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E11" s="5">
         <v>3.3</v>
@@ -4450,7 +4464,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B12" s="5">
         <v>3.7</v>
@@ -4476,14 +4490,14 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B13" s="5">
         <v>4</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E13" s="5">
         <v>4</v>
@@ -4502,14 +4516,14 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5">
         <v>4.7</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E14" s="5">
         <v>4.7</v>
@@ -4528,14 +4542,14 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B15" s="5">
         <v>5</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="9" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="5">
         <v>5</v>
